--- a/deuChatbot/research_result/version_2(1500_100).xlsx
+++ b/deuChatbot/research_result/version_2(1500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20806,6 +20806,6692 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 배점, 준비물, 실기주제, 화지 크기 및 시험시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 항목이 명확하게 정리되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 모든 정보를 포함하고 있으며, 실기시험에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조와 표현이 매끄럽습니다. 전반적으로 읽기 쉽고 이해하기 좋습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있어 전체적으로 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8722039427785794</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행됩니다. 각 모집단위는 기초디자인 또는 사고의 전환이라는 두 가지 종목 중 하나를 선택하여 준비해야 합니다.
+**기본 정보:**
+- **모집단위:** 시각디자인, 산업디자인, 공예디자인
+- **종목:** 기초디자인 (시각디자인), 사고의 전환 (산업디자인, 공예디자인)
+- **배점 비율:** 700점 중 70% (즉, 490점)
+**기초디자인:**
+- **준비물:** 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제:** 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울" (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지) 또는 "악보와 줄자" (주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+- **화지크기:** 켄트지3절
+- **시험기간:** 5시간
+**사고의 전환:**
+- **준비물:** 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제:** 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절" (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼) 또는 "바이러스와 자유" (주제B: 바이러스, 자유, 여행, 계절, 꿈)
+- **화지크기:** 켄트지2절
+- **시험기간:** 5시간
+디자인조형학과의 실기시험은 창의성과 표현 능력을 평가하기 위해 이러한 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 어색할 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성이 약간 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 연결이 어색할 수 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.804024725470965</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9150086599981222</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 종목별로 다르게 되어 있습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회의 정보를 참고하여 지원할 수 있는 대회를 선택하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목들을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 주제 선정 방식에 대한 설명도 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7568780490132165</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 준비해야 합니다. 예시로 주제A는 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 등이며, 주제B는 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 등입니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있습니다. 그러나 나군 학생부종합 전형의 구체적인 유형을 나열하는 부분은 원문과 직접적인 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관되게 출결 점수가 반영되지 않는다고 언급하지만, 추가적인 전형 유형에 대한 정보는 원문에서 다루지 않은 내용이므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용에 대해 직접적으로 관련된 정보를 제공합니다. 출결 점수가 반영되지 않는다는 점을 명확히 하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제가 일관되게 유지되고 있습니다. 그러나 추가적인 전형 유형에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, 나열된 전형 유형에 대한 정보는 원문에 포함되지 않은 내용입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원문과의 직접적인 관련성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 원문과의 관련성을 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 다만, 추가적인 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6029868349894215</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합(평생학습자전형), 나군 학생부종합(성인학습자(정원내)전형), 나군 학생부종합(성인학습자(정원외)전형), 나군 학생부종합(재직자전형), 나군 학생부종합(조기취업형계약학과전형)에서는 출결 점수가 반영되지 않습니다. 전형요소 반영비율에서 출결의 비율은 0%로 되어 있습니다.
+만약 다른 전형 유형에 대해 궁금하신다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나 추가 정보를 제공해주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 유창하지만, "교직 모집단위에서" 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 모든 정보가 정확하게 전달되고 있으며, 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.881067677909343</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직 모집단위에서 가군 일반학생전형으로는 17명이 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모집 인원과 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6415190179626145</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 모집인원이 28명이라는 정보가 제공되었습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8291031121253111</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 편이지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9129270738114033</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 정보를 바탕으로 수능 영어 점수를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 잘못 해석하고 있습니다. 예술고 학생은 지원할 수 없다는 것이 사실인데, 생성된 응답에서는 지원이 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생이 지원할 수 없다는 원문과 상반된 내용을 포함하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 다르게 예술고 학생이 지원할 수 있다고 잘못 기술하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7196558116602971</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 특수목적 고등학교로 분류되므로, 나군 학생부교과 농어촌학생전형에서는 지원이 가능하지 않습니다. 이 전형은 일반고, 자율고, 특수목적 고등학교의 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 특성화고(대안), 영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교, 검정고시, 외국고 등에서 나온 학생들을 대상으로 합니다. 예술고는 이에 포함되지 않으므로 지원이 불가능합니다.
+만약 예술고 학생이라면, 다른 전형을 통해 지원할 수 있습니다. 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입시 관련 웹사이트나 담당 교사에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 거리가 268~271cm"라는 부분은 원본 텍스트에 명시된 기록과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. "남은 거리"라는 표현은 원본 텍스트에 없으며, 이는 응답의 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 "여는 거리"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 방해받고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 기록에 대한 정확성이 떨어지며, 잘못된 수치를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 완전하게 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8098451778230482</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>4등급에 해당하는 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 남은 거리가 268~271cm이고, 여는 거리는 218~221cm입니다. 이 기록의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 실제로는 12%라는 구체적인 수치가 존재합니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보가 없다고 주장하고 있지만, 원본 텍스트에는 명확한 비율이 제시되어 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보와 웹사이트 링크를 포함하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원본 텍스트와 일치하지 않으며, 주제와 관련이 없는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 주제와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.552323235689634</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 경기지도학과의 특정한 출결 반영 비율에 대한 내용이 없습니다. 다른 교과나 전형 관련 정보만이 포함되어 있습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원이 없다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 4명을 모집한다고 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 모집 인원이 없다는 주장은 원본과 일치하지 않습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 핵심 정보와 관련이 없습니다. 모집 인원에 대한 질문에 대해 전혀 다른 내용을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부정확성으로 인해 전체적인 의미 전달이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 문장 구조는 일관성이 있지만, 내용이 잘못되어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 의미적으로 부적절하며, 원본 텍스트의 맥락과 전혀 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7826676683424418</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 물리치료학과에서는 가군에서 모집인원이 없습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4983764080083655</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 응용화학과의 수능 최저기준이 없다는 정보는 정확하지만, "구체적인 수능 최저기준은 해당 페이지에서 확인할 수 있습니다"라는 부분은 사실과 다를 수 있습니다. 응용화학과에 대한 구체적인 기준이 없다는 점을 명확히 하지 않았기 때문에 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응용화학과의 수능 최저기준이 없다는 점은 일관되지만, 다른 전공에 대한 언급이 추가되어 혼란을 줄 수 있습니다. 응용화학과에 대한 정보가 없다는 점과 다른 전공에 대한 정보를 함께 언급함으로써 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 응용화학과의 수능 최저기준에 대한 질문에 대해 직접적으로 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "제공된 정보에서"라는 부분이 다소 어색하게 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달됩니다. 그러나 다른 전공에 대한 언급이 추가되어 약간의 혼란을 줄 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저기준이 없다는 사실을 정확히 반영하고 있지만, 응용화학과에 대한 구체적인 기준이 확인 가능하다는 부분은 정확하지 않을 수 있습니다. 따라서 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 정확성과 일관성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 표현이 다소 어색하게 느껴질 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 다소 복잡하게 느껴질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4634824300217568</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 정보는 없습니다. 다른 전공들의 경우, 수능 최저기준이 없음을 알 수 있지만, 응용화학과에 대한 구체적인 수능 최저기준은 해당 페이지에서 확인할 수 있습니다. 더 자세한 정보를 얻으시려면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 신설된 학과 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7843773415761164</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과, 스마트항만물류학과, 창업투자경영학과, 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하고 있으며, 서류와 면접의 비율이 정확하게 언급되어 있습니다. 그러나 "다른 요소들(학생부 교과, 출결, 실기, 수능 등)은 해당 전형에서 반영되지 않는 것을 의미합니다."라는 부분은 원문에 명시되어 있지 않은 정보로, 다소 과도한 해석이 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가된 정보가 원문에 없는 내용이므로 일관성이 떨어집니다. 원문에서는 다른 요소들에 대한 언급이 없기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 전형요소 반영비율에 직접적으로 관련된 내용을 다루고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "구성되어 있습니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전형요소 반영비율에 대한 정보는 정확하지만, 추가된 내용이 원문에 없는 정보이므로 정확성에서 약간의 감점이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 추가된 정보가 원문과의 의미적 일치를 약간 해치는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8691248379703205</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류가 70%, 면접이 30%로 구성되어 있습니다. 이는 주어진 정보에 따르면, 다른 요소들(학생부 교과, 출결, 실기, 수능 등)은 해당 전형에서 반영되지 않는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원문에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'을 명시하고 있어 사실과 다릅니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서 언급된 모집단위와는 다른 학과를 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있으나, 잘못된 학과를 언급하고 있어 관련성은 있지만 정확한 정보는 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다르며, 잘못된 학과를 언급하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 점수가 낮아 전반적인 품질이 좋지 않습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 수능 가산점에 대한 정보를 제공하고 있으나, 잘못된 학과를 언급하고 있어 의미의 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.755811447658846</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이 학과에서는 수학(미적분 또는 기하) 응시자의 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 반영 비율을 각 영역별로 25%로 나누어 설명하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 성적 반영 방법에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원문에서 강조한 100% 반영이라는 핵심 정보를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 내용의 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로는 일관되지만, 원문과의 사실적 불일치로 인해 전체적인 일관성이 떨어집니다. 수능 성적 반영 방식에 대한 설명이 있지만, 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능 성적을 100% 반영한다고 한 원문과는 달리, 생성된 응답은 각 영역별로 25% 반영한다고 하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 관련성은 높지만, 전반적으로 원문과의 불일치로 인해 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 의미 전달이 명확하지 않습니다. 수능 성적 반영 방식에 대한 설명은 적절하나, 원문과의 차이로 인해 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원문과의 불일치로 인해 혼란스러울 수 있는 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7667715876005677</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위: 전 모집단위 (한의예과를 제외)
+- 수능 반영 영역: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)
+- 반영 비율: 각 영역별로 25%
+이러한 방식으로 수능 성적이 학생들의 입시 경쟁력을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사의 날짜를 정확하게 언급하고 있으며, 추가적으로 다른 학과의 실기고사 날짜도 제공하고 있습니다. 그러나, 원본 텍스트에 포함되지 않은 정보가 추가되어 있어 완전한 일치라고 보기는 어렵습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 날짜와 관련된 정보는 일치하지만, 추가된 정보가 원본 텍스트와의 일관성을 떨어뜨립니다. 특히, &lt;나&gt;군 실기고사에 대한 정보는 원본 텍스트와 관련이 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 실기고사 날짜와 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 날짜와 관련된 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되지 않은 내용이므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미와는 다소 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7025253266799999</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024. 01. 16.(화)입니다.
+추가 정보로, &lt;나&gt;군 실기고사인 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 날짜는 2024. 01. 17.(수)입니다.
+더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있으며, 레저스포츠학과와 태권도학과가 제외되었다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 전형에 대한 질문에 대한 답변이지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 사실과 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 전형에 대한 설명을 하고 있으나, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6826801221294343</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 레저스포츠학과와 태권도학과는 제외되었습니다. 이 두 학과는 다른 전형 요소 반영 비율을 가지고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "모든 다군 전형에서 공통된 특징입니다"라는 추가 정보는 명확한 출처가 없으므로 약간의 부정확성을 포함하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 일치합니다. 그러나 추가된 정보가 원문에 명시되어 있지 않기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 추가된 정보가 원문에 포함되어 있지 않아 약간의 일관성 부족이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제시된 사실을 정확하게 반영하고 있지만, 추가된 정보가 사실인지 확인할 수 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 추가 정보의 출처가 불분명하여 약간의 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가된 정보가 원문에 명시되어 있지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8652819456743632</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 다군 전형에서 공통된 특징입니다. 자세한 내용은 제공된 정보를 바탕으로 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 학부에서 학과로의 분리 정보를 정확하게 반영하고 있지만, 신설된 학과와 모집 중지된 학부에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 일관되게 반영하고 있지만, 추가된 신설 학과와 모집 중지된 학부에 대한 정보는 원본과 일치하지 않으므로 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 학부에서 학과로의 분리에 대한 정보를 잘 다루고 있지만, 신설된 학과와 모집 중지된 학부에 대한 정보는 원본의 핵심 주제와는 관련이 적다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽지만, 추가된 정보로 인해 약간의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 정확하게 반영하지만, 신설된 학과와 모집 중지된 학부에 대한 정보는 원본에 포함되어 있지 않으므로 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보가 원본의 맥락과 다소 어긋나 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.7829804357133729</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 보육·가정상담학부가 아동학과로 분리되었습니다. 또한 경제금융보험학부는 금융경영학과로, 정보경영학부(경영정보학, e비즈니스학)는 경영정보학과와 e비즈니스학과로, 부동산금융·자산경영학부는 부동산자산경영학부(부동산투자학, 부동산개발경영학)로 분리되었습니다. 또한 기계자동차로봇부품공학부는 기계공학과, 로봇자동화공학과, 자동차공학과로 분리되었습니다.
+신설된 학과로는 심리학과와 스마트항만물류학과가 있으며, 창업투자경영학과와 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과도 신설되었습니다. 하지만 산업융합시스템공학부(산업ICT기술공학)와 전기전자통신공학부(정보통신공학)는 모집을 중지하였습니다.
+위의 내용에서 학부에서 학과로 분리된 학과는 아동학과, 금융경영학과, 경영정보학과, e비즈니스학과, 기계공학과, 로봇자동화공학과, 자동차공학과입니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.846015950337327</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 학생부종합 전형의 평가 기준에 대한 변화를 언급하고 있지만, 원본 텍스트에서 제공된 전형 요소 변화와는 다소 다른 내용을 포함하고 있습니다. 특히, '평생학습자전형'과 '재직자전형'에 대한 언급은 원본 텍스트에 없으며, 전형의 세부 사항이 정확히 반영되지 않았습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원본 텍스트에서 제시된 전형 요소 변화와는 다른 전형에 대한 설명이 포함되어 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 부분이 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성 점수가 낮습니다. 특히, 전형의 세부 사항이 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 품질 차원에서 낮은 점수를 기록하고 있으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있어 점수가 중간입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7217276962625976</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형 중 하나는 **학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)**입니다. 이 전형의 학생부종합 평가 영역별 세부 평가 기준에서 변화된 부분은 다음과 같습니다:
+1. **공동체역량**:
+   - **변화 전**: 협업능력
+   - **변화 후**: 공동체 목표를 위한 협력적 태도, 나눔과 배려, 학교폭력여부
+2. **학업역량**:
+   - **변화 전**: 학업태도 / 학업성취
+   - **변화 후**: 학업에 대한 흥미 및 주도적 노력, 수업시간 적극적 참여, 학업에 대한 성취정도, 학년별 성적추이
+3. **전공적합성**:
+   - **변화 전**: 열정
+   - **변화 후**: 지원전공(계열) 관련 활동과 경험, 지원전공(계열) 관련 학업의지, 학교생활의 적극적 참여
+이와 같이 2024학년도에는 학생부종합 평가 영역별 세부 평가 기준에서 변화가 있음을 확인할 수 있습니다. 기타 전형에 대한 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보인 전형명과 모집단위에 대한 내용은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 기반으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 원본에서 제공되지 않은 내용이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 실기 비중에 대해 직접적으로 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 약화시킵니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기 비중에 대한 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보를 포함하고 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.834402358776783</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기의 비중은 70%입니다. 이는 전형명이 '가군 실기/실적(일반학생전형)'이고, 모집단위가 레저스포츠학과와 태권도학과일 때 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8109099205839576</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설된 동의대학교의 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 또한, '이 두 학과만 가군 수능(일반학생전형) 또는 실기/실적(일반학생전형)에서 실기고사를 진행합니다.'라는 문장은 사실과 다릅니다. 원본 텍스트에 명시된 학과가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '태권도학과'는 원본에 없으며, '체육학과'가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 정확히 반영하지 않기 때문에 완전한 관련성을 가지지 않습니다. 그러나 실기고사에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보를 포함하고 있습니다. '태권도학과'는 원본에 없고, '체육학과'가 누락되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미를 정확히 전달하지 못하고 있습니다. 따라서 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장은 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7076017074687747</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다.
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군 수능(일반학생전형) 또는 실기/실적(일반학생전형)에서 실기고사를 진행합니다. 이 외의 학과는 모두 수능 성적이 반영되는 방식으로 모집됩니다.
+더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 언급된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과(바이오의약공학과, 제품디자인공학과, 전기공학과, 전자공학과)를 언급하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 제시된 학과와 생성된 응답에서 언급된 학과가 서로 다르기 때문에, 정보의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 요구하는 특정 학과에 대한 정보와는 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5157143948675085</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 바이오의약공학과(나), 제품디자인공학과(가), 전기공학과(가), 전자공학과(가)에 해당됩니다. 이들 학과에서는 실기/실적 위주로 평가를 진행하므로, 관심 있는 학과 중에서 지원을 고려해 보시면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부에서 제공하는 전공 목록에 부동산투자학과 부동산개발경영학을 추가하였으나, 원본 텍스트에는 이러한 전공이 포함되어 있지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트에 없는 전공이 추가되어 있어 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부의 전공에 대한 정보를 제공하고 있으나, 원본 텍스트에 없는 전공을 포함하고 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 중복된 표현이 있어 점수를 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록을 잘 정리하여 제시하고 있으며, 전반적으로 논리적인 흐름이 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 전공을 추가하여 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않기 때문에 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 점수가 낮아 전반적인 품질이 떨어집니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8709853713796689</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 신설 전공:
+   - 스타트업창업투자학
+   - 뷰티비즈니스학
+   - 라이프생활문화학
+2. 기존 전공 (모집인원에 따라 달라질 수 있음):
+   - 부동산투자학
+   - 부동산개발경영학
+따라서, 동의대학교의 라이프융합학부에서는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학, 부동산투자학, 부동산개발경영학 등 다양한 전공을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다는 점이 누락되었습니다. 따라서 완전한 정확성은 아니지만, 주요 사실은 잘 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 점에서 일관성을 유지하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 예시로 제시된 과학고, 국제고, 외국어고는 지원 자격에 포함된다는 점이 추가되었으나, 이는 원문에 명시된 내용이 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 포함하고 있습니다. 따라서 원문과의 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 주요 사실을 정확하게 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 아닙니다. 그러나 제공된 정보는 신뢰할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높으며, 질문에 대한 적절한 답변을 제공합니다. 그러나 일부 추가 정보가 원문과 일치하지 않으므로 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 약간의 정보 누락이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7222221957664395</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우 동의대학교 일반학생전형으로 지원이 가능합니다. 예를 들어, 과학고, 국제고, 외국어고 등은 지원 자격에 포함되어 있습니다.
+다만, 정확한 지원 자격과 제출 서류는 해당 대학의 공식 홈페이지나 입학처에서 확인하는 것이 가장 정확할 것입니다. 따라서 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 입학규정을 확인하시기 바랍니다.
+또한, 지원 자격과 제출 서류가 변경될 수 있으므로 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집한다고 명시하고 있지만, 생성된 응답에서는 컴퓨터공학과와 게임공학과가 가장 많이 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에 대한 질문에 답하고 있지만, 제공된 정보가 원문과 관련이 없고 잘못된 내용을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5522132810726049</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보면, ICT융합공과대학에서 컴퓨터공학과와 게임공학과가 각각 최대 선발 가능 인원이 3명으로 가장 많은 모집인원을 가지고 있습니다. 또한, 예체능 계열에서는 영화학과도 최대 선발 가능 인원이 1명으로 꾸준히 모집되고 있습니다.
+따라서, 가장 많이 모집하는 학과는 컴퓨터공학과와 게임공학과로 보입니다. 하지만, 정확한 정보를 얻기 위해서는 공식 홈페이지인 "https://ipsi. deu. ac. kr/main. do"에서 최신의 전형 안내를 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특수목적고등학교 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본의 핵심 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6548460533742384</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우에도 동의대학교에서 농어촌학생전형을 통해 지원이 가능합니다. 특수목적고등학교 중 과학고, 국제고, 외국어고는 포함되며, 예술고와 체육고, 마이스터고도 지원이 가능합니다.
+특히, 6년 과정의 경우, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다. 12년 과정의 경우는 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자여야 합니다.
+제출서류는 각 유형별로 다르므로, 정확한 내용은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 부재에 대한 설명이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.8190387148856292</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 정보는 다른 학과와 전공의 평균 성적 및 기타 통계를 포함하고 있습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시거나, 대학 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 잘못된 정보를 제공합니다. 
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되며, 원문에서 제공된 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문에서 언급된 내용과는 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 응답은 문법적으로는 일관성이 있지만, 원문과의 관계가 전혀 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원문에서 제공된 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받아 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원문과 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5055434586442002</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가된 정보가 있습니다. 예를 들어, 최초 합격자 등록 날짜와 관련된 정보는 원본에 없으며, 충원 합격자 발표와 등록에 대한 정보가 혼합되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, 등록 관련 세부사항이 원본에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하며, 주제와 관련이 있습니다. 그러나 추가된 등록 정보는 원본 텍스트의 주요 내용과는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다. 특히 등록 관련 정보는 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보입니다. 그러나 정보의 정확성과 일관성 부족으로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않기 때문에 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 면접 절차에 대한 설명을 포함하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 특정 정보를 반영하지 않고, 일반적인 면접 절차에 대한 설명으로 일관성이 부족합니다. 원본 텍스트의 핵심 정보와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 특정 날짜와 관련된 정보가 부족하여 관련성이 떨어집니다. 그러나 면접고사에 대한 언급이 있어 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원본 텍스트와의 연결이 부족하여 약간의 흐름이 끊기는 느낌이 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일반적인 면접 절차에 대한 설명이지만, 원본 텍스트의 특정 정보와 연결되지 않아 일관된 흐름이 부족합니다. 정보가 분리되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실(면접고사 일정)을 반영하지 않으며, 일반적인 정보만을 제공하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 의미적으로 적절하지만, 원본의 특정 정보와는 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4919270039749762</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사는 일반적으로 서류평가 점수에 따라 선발된 후 일정한 날짜에 이루어집니다. 정확한 날짜와 시간은 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 공식 웹사이트에서 확인할 수 있습니다. 해당 웹사이트 주소는 "https://ipsi. deu. ac. kr/main. do" 입니다. 웹사이트를 통해 최신 정보와 면접 일정을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "수능 위주 전형으로 모집된다"는 추가 정보는 명시된 출처에서 직접적으로 언급되지 않았으므로, 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처와 일치하는 부분이 있지만, 수능 위주 전형에 대한 언급이 출처에 포함되어 있지 않기 때문에 일관성이 떨어집니다. 따라서 일부 일관성이 있지만 완전하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "제공된 정보에 따르면"이라는 문구가 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 수능 위주 전형에 대한 언급이 출처와 일치하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있지만, 수능 위주 전형에 대한 정보는 출처에서 확인할 수 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 출처 불일치로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 출처의 맥락과 잘 맞아떨어집니다. 그러나 수능 위주 전형에 대한 언급이 다소 불필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문구가 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5482530998045215</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 한의예과의 경우 수능 위주 전형으로 모집되며, 수능 최저학력 기준이 없습니다. 따라서 한의예과에서 수능 최저학력 기준을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 모든 모집단위에서 수능 최저학력 기준이 없다는 점을 명확히 하고 있으며, 추가 정보 제공을 위한 웹사이트 링크도 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다. 각 모집단위별 수능 반영 영역과 가산점 방식에 대한 언급도 원문과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊습니다. 수능 최저학력 기준에 대한 정보와 추가 정보 제공을 위한 웹사이트 링크는 모두 원문과 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "제공된 정보에 따르면"이라는 문구가 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 수능 최저학력 기준이 없다는 주제를 중심으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치합니다. 수능 최저학력 기준이 없다는 사실을 정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다. 수능 최저학력 기준에 대한 설명이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5463059015008102</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 모집단위에서 수능 최저학력 기준이 없습니다. 각 모집단위별로 수능 반영 영역과 가산점 방식이 다르지만, 수능 최저학력 기준은 없음을 확인할 수 있습니다.
+만약 추가 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표 일정에 대해 일관성을 유지하고 있지만, 3차 이후의 일정에 대한 정보가 다르게 표현되어 있어 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다. 따라서 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 3차 이후 일정에 대한 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다. 따라서 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 발표 일정에 대한 정확한 정보를 제공하지만, 3차 이후 일정에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다. 따라서 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 의미를 전달하고 있습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.909970501892838</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표일과 3차 이후 발표일을 누락하고, 2차 충원합격자 발표일을 잘못 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 발표 일정에 대한 정보가 불일치합니다. 특히, 2차 발표일이 잘못 기재되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트의 세부 사항을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 주제를 가지고 있으나, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 발표 일정에 대한 정보가 부정확하여 정확성이 낮습니다. 특히, 2차 발표일이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.6702589306393263</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 02월 15일(목) 09:00이며, 이에 대한 자세한 정보는 합격자 발표 및 등록금 납부 항목을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원에 대한 정보를 제공하지 않고, 추가 모집 여부에 대한 명확한 답변을 하지 않고 있습니다. 이는 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가 모집 여부에 대한 불확실성을 언급하고 있습니다. 이는 원본 텍스트에서 명확히 언급된 내용과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 구체적인 정보가 부족하여 관련성이 떨어집니다. 원본 텍스트의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 정보의 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5153241767827313</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 특정 단과대학이나 전형의 추가 모집 여부는 명확히 알 수 없습니다. 추가 모집에 대한 자세한 정보가 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나 대학 입학처와 직접 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 포함하고 있으며, 서류 및 면접 비율, 제출서류에 대한 설명이 포함되어 있습니다. 그러나 "성인학습자와 재직자를 대상으로 한다"는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, "성인학습자와 재직자"라는 추가 정보가 원본 텍스트에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5  
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 평생학습자전형에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "면접에서는 지원동기에 대해 이야기하고" 부분이 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4  
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있으나, "성인학습자와 재직자"라는 정보는 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4  
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본과의 의미적 일관성을 약간 해치는 경향이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6886634910982016</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 학생부종합 전형의 일환으로, 성인학습자와 재직자를 대상으로 합니다. 서류평가 비율은 70%로, 면접평가 비율은 30%입니다.
+제출서류는 구분에 따라 다릅니다:
+1. 고교 졸업(예정)자는 학교생활기록부를 제출합니다.
+2. 검정고시 출신자는 검정고시 합격증서와 성적증명서, 그리고 선택적으로 학교생활기록부 대체 서류를 제출합니다.
+3. 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서와 성적증명서, 그리고 선택적으로 학교생활기록부 대체 서류를 제출해야 합니다.
+면접에서는 지원동기에 대해 이야기하고, 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력, 그리고 본인이 의미하는 지원 전공(계열)과 관련된 교내(직장 내) 활동을 설명합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정확한 정보를 제공하지 않고, 모집군과 전형명에 대한 내용으로 대체하고 있습니다. 원본 텍스트의 핵심 정보인 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"에 대한 언급이 없으므로 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 지원자격에 대한 구체적인 내용을 제공하는 반면, 생성된 응답은 모집군과 전형명에 대한 정보로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 지원자격에 대한 직접적인 정보가 부족하여 관련성이 낮습니다. 원본 텍스트의 핵심 주제를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성에 비해 문장 구조가 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 정보가 분리되어 있어 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 지원자격에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 지원자격에 대한 정보가 아닌 다른 내용을 포함하고 있습니다. 따라서 의미적 적절성 점수는 낮습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6021201077653584</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원 자격에서는 모집군이 나군이고, 전형명은 학생부교과입니다. 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고의 직업 특성, 대안 특성, 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 모두 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 대신 웹사이트를 방문하라는 일반적인 조언을 하고 있습니다. 따라서 원본 텍스트의 핵심 정보를 직접적으로 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 실기고사에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 내용과는 다소 다른 방향으로 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 내용에 대한 언급이 부족하여 다소 관련성이 떨어집니다. 그러나 웹사이트 방문을 권장하는 점은 관련성이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 완전한 일관성을 유지하지는 못합니다. 그러나 전반적으로 이해하기 쉬운 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고, 일반적인 정보만을 제공하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 전달하고 있지만, 구체적인 정보가 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4315844461606255</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>ippsi.deu.ac.kr 주소에 접속하시면 나군 학생부종합 면접평가와 관련된 자세한 정보를 얻으실 수 있습니다. 특히 실기고사의 장소 등 구체적인 안내가 있을 것입니다. 웹사이트를 방문해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 주어진 소스 텍스트와 관련이 없는 내용이 포함되어 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 소스 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 여러 가지 실기 종목에 대한 정보를 제공하지만, 소스 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 따라서 일관성 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 소스 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 소스 텍스트의 의미와 전혀 일치하지 않으며, 맥락에 맞지 않는 내용이 포함되어 있습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 쉽지만, 소스 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2296853191994359</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 
+모집단위별로 실기종목이 다르므로, 정확한 정보를 얻으시려면 모집단위를 확인하시기 바랍니다.
+- 메디신볼 던지기는 체육학과에서 치릅니다.
+- 제자리 멀리뛰기는 체육학과에서 치릅니다.
+- Z-런은 체육학과에서 치릅니다.
+모집단위에 따라 실기종목이 다르므로, 정확한 정보를 얻으시려면 모집단위를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받는다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있습니다. 원문은 전화 통보가 이루어지지 않는다고 명확히 설명하고 있으나, 생성된 응답은 전화 통보가 있을 것이라고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보가 포함되어 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 다루고 있는 주제와는 다르게 잘못된 일정과 웹사이트 링크를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 전화 통보와 관련된 정보가 원문과 상충하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다릅니다. 전화 통보가 이루어지지 않는다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 원문과의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과에 대한 정보가 제공되지 않았다는 사실을 정확하게 반영하고 있습니다. 그러나 "제공된 정보에서 경찰행정학과에 대한 내용이 없습니다"라는 표현은 원문에서 "수시모집 결과"에 대한 정보가 없다는 점을 명확히 하지 않아서 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 전달하고 있습니다. 다만, "경찰행정학과에 대한 내용이 없습니다"라는 표현이 원문에서 강조하는 "수시모집 결과"에 대한 정보가 없다는 점을 완전히 반영하지는 못하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 직접적으로 관련이 있으며, 필요한 정보를 제공하기 위해 웹사이트를 방문하라는 제안을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 "제공된 정보에서"라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 연결이 조금 더 명확했으면 좋았을 것입니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있습니다. 다만, "경찰행정학과에 대한 내용이 없습니다"라는 표현이 원문에서의 특정 정보(수시모집 결과)에 대한 언급을 포함하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 모호함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, "경찰행정학과에 대한 내용이 없습니다"라는 표현이 원문의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 그러나 약간의 모호함이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.6804510843512316</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경찰행정학과에 대한 내용이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않아도 지원할 수 있다고 주장하고 있지만, 이는 원문과 상반되는 내용입니다. 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문이 수능 응시 여부에 따라 지원이 불가능하다고 명시한 반면, 생성된 응답은 일부 전형에서 지원이 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만, 그 내용이 부정확합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 내부적으로는 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 다르게 해석되고 있으며, 잘못된 정보로 인해 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5149069408769787</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 모집에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능합니다. 예를 들어, 농어촌학생전형과 성인학습자전형 등은 수능 응시 여부와 관계없이 지원할 수 있습니다.
+특히, 농어촌학생전형의 경우 6년 과정이나 12년 과정에 따라 다양한 서류를 제출해야 하며, 정원 외 지원 자격과 최종 등록자 추가 제출서류가 필요합니다. 또한 성인학습자전형에서는 재직기간이 3년 이상이어야 하며, 산업체 적용 범위와 같은 조건을 충족해야 합니다.
+따라서 수능 응시 여부에 관계없이 지원할 수 있는 전형들이 있으므로, 구체적인 전형별 지원 자격과 제출 서류를 확인하시기 바랍니다. 더 자세한 정보는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문 내용을 무시하고, 성인학습자 전형에 대한 정보만을 제공하고 있습니다. 이는 원문에서 명시된 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 성인학습자 전형을 강조하며 정시 지원을 부정적으로 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 성인학습자 전형에 대한 정보를 제공하지만, 원문에서 요구하는 정시 지원에 대한 질문과는 직접적으로 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 사실을 무시하고 성인학습자 전형에 대한 정보만을 강조하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성, 정확성, 관련성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 성인학습자 전형에 대한 정보를 제공하지만, 원문과의 맥락에서 벗어나 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6307760218020885</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합전형에서는 고등학교 졸업 후 3년 이상 재직한 경우 성인학습자 전형을 통해 지원할 수 있습니다. 따라서, 고등학교를 졸업한지 10년이 지났다면 정시 지원보다는 성인학습자 전형을 통해 지원하는 것이 적합합니다.
+성인학습자 전형의 세부 사항은 다음과 같습니다:
+- 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+- 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체, 4대 보험 중 1개 이상 가입 사업체 등이 해당됩니다.
+따라서, 고등학교 졸업 후 3년 이상 재직한 경력을 가지고 있다면 성인학습자 전형을 통해 지원할 수 있습니다. 정시 지원은 일반적으로 고등학교 졸업 후 3년 이내에 재직한 경우에 적합합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 방문하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 일정과 관련된 정보가 대부분 정확하게 전달되었습니다. 그러나 "마감 시간은 각각의 전형에 따라 다르므로 확인이 필요합니다."라는 문구는 원본 텍스트에 명시된 마감 시간을 구체적으로 언급하지 않아 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 일부 세부사항이 생략되거나 간략화되어 있어 완전한 일관성을 보장하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 잘 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 일부 세부사항이 생략되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8044453989462824</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정은 다음과 같습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각각의 전형에 따라 다르므로 확인이 필요합니다. (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 참조)
+3. **서류 제출**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 각각의 전형에 따라 다르므로 확인이 필요합니다.
+4. **&lt;가&gt;군 실기고사 및 &lt;나&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 및 등록: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 2차 (2024년 2월 14일 (수)), 3차 (2024년 2월 15일 (목) ~ 2024년 2월 20일 (화))
+   - 합격자 발표 및 등록은 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+이 일정들은 각 전형에 따라 다소 차이가 있을 수 있으므로, 공고된 일정을 반드시 확인하시기 바랍니다. 자세한 내용은 [입시 홈페이지](https://ipsi. deu. ac. kr/main. do)를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8243630440788009</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 다음과 같이 설명하겠습니다.
+1. **원서접수(인터넷)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토)
+   - **마감시간**: 원서 접수 마감은 각 날짜의 18시까지입니다.
+   - **비고**: 원서접수는 입학안내 홈페이지를 통해 진행되며, 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다. (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 참조)
+2. **서류제출(제출서류가 있는 경우)**:
+   - **일정**: 2024. 01. 03.(수) ~ 2024. 01. 12.(금)
+   - **마감시간**: 서류 제출 마감은 각 날짜의 17시까지입니다.
+   - **비고**: 서류 제출 대상자는 (Ⅳ. 전형별 세부 안내 참조)에 따라 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 제출할 수 있습니다.
+3. **실기고사**:
+   - **&lt;가&gt;군 태권도학과, 레저스포츠학과**:
+     - **일정**: 2024. 01. 16.(화)
+     - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+   - **&lt;나&gt;군 체육학과, 시각디자인, 산업디자인, 공예디자인**:
+     - **일정**: 2024. 01. 17.(수)
+     - **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+4. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024. 02. 02.(금) 14:00
+     - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **최초 합격자 등록**: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **충원 합격자 발표 및 등록**:
+     - **1차 출고**: 2024. 02. 14.(수) 09:00 ~ 16:00
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+     - **2차 출고**: 2024. 02. 15.(목) 09:00 ~ 16:00
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+     - **3차 출고**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - **비고**: *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+이상으로 동의대학교 2024년 정시 모집 일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있으나, 생성된 응답에서는 수능 미응시자도 지원이 가능한 전형이 없다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원할 수 없다는 점을 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 수능 미응시자의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다. 그러나 전반적으로 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7822955176252295</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서는 수능 미응시자도 지원이 가능한 전형이 없습니다. 지원 자격을 확인하는 데 어려움이 있다면, 공식 웹사이트를 참조하시거나 "https://ipsi. deu. ac. kr/main. do" 링크에서 최신 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격에 대한 정보를 부정확하게 전달하고 있습니다. 원문에서는 36명까지 충원 합격이 이루어졌다고 명시되어 있지만, 생성된 응답은 그러한 정보를 포함하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 전년도 전자공학과 관련 데이터가 없다고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 전년도 전자공학과의 충원 합격에 대한 구체적인 내용을 언급하지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원문에서 제공된 정보와의 연결이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하지 않고 있으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 일치하지만, 전년도 전자공학과의 충원 합격에 대한 구체적인 정보를 제공하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 부족으로 인해 완전한 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.4757469624053908</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 전년도 전자공학과 관련된 데이터가 없습니다. 이와 관련된 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와는 상반된 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 언급하여 일부 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호에 대한 정보가 누락되어 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5710414600355025</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果需要这个信息，可以访问东义大学官网（https://ipsi. deu. ac. kr/main. do）查询或直接联系学校获取准确的联系方式。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통보가 이루어진다고 언급하고 있지만, 원문에서는 전화 연락이 두절될 경우 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 사실관계가 일치하지 않으며, 중요한 정보가 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않을 경우의 처리 방식에 대해 설명하고 있지만, 생성된 응답은 다른 절차를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 확인 절차에 대한 정보를 제공하지만, 원문에서 질문한 전화 통보와 관련된 내용과는 직접적인 연관성이 떨어집니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약합니다. 원문에서 제시한 상황과의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 다르게 전화 통보가 이루어진다고 잘못된 정보를 제공합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 부족하고, 사실관계와 일관성이 떨어지기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않아 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5729038483669295</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에게는 개별 전화 통보가 이루어집니다. 만약 전화 통화가 되지 않는 경우, 해당 학생은 다음과 같은 절차를 따르게 됩니다.
+1. **홈페이지에서 개별 조회**: 합격자 발표일 이후에는 입학 안내 홈페이지에서 개인의 합격 여부를 확인할 수 있습니다.
+2. **고지서 출력 또는 수령**: 홈페이지에서 고지서를 직접 출력하거나, 입학관리팀에서 이를 받아볼 수 있습니다.
+이러한 절차를 통해 학생들은 자신의 합격 여부를 확인하고, 등록금 납부와 등록을 진행할 수 있게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류 목록과 관련된 세부 사항이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 제출에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7189728092912255</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형에서 제출해야 할 서류는 다음과 같습니다.
+**6년 과정**
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**12년 과정**
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 지원자의 교육과정과 거주지역을 확인하기 위한 것입니다. 특히, 농어촌 지역에 거주하였다는 증거를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 제출해야 할 서류 목록을 정확하게 나열하고 있습니다. 그러나 '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 제출해야 할 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정'에 대한 언급이 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정'에 대한 언급은 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, '6년과정'에 대한 언급이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8150795439885091</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류제출이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 반영하고 있지만, "저소득 기회균등 전형"이라는 표현이 추가되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되지만, "저소득 기회균등 전형"이라는 표현이 원본 텍스트에 명시되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으나, "제공된 정보에서는"이라는 시작 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있지만, "저소득 기회균등 전형"이라는 추가 정보가 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대체로 정확하지만, "저소득 기회균등 전형"이라는 표현이 원본 텍스트에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 세부 사항에서 약간의 부정확성이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 대체로 일치하지만, "저소득 기회균등 전형"이라는 표현이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5865494795137906</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형에 대한 내용이 없습니다. 정확한 답변을 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2.5 등급이 절사되어 3 등급으로 처리된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 내용과는 다소 동떨어져 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없음을 강조하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으므로, 생성된 응답의 내용은 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하지만, 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6899097948831073</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사하여 3 등급으로 처리됩니다. 수능 영어영역 등급에 따른 점수에서 볼 때, 등급이 정수 값만 주어져 있으며, 2.5와 같은 소수점 이하는 절사합니다. 따라서 사탐 2 과목 평균산출 결과가 2.5 등급이라면, 그대로 3 등급으로 처리됩니다.
+더 궁금하신 점이 있으시다면 https://ipsi.deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 일정에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8261691729005323</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 09:00입니다.
+2차 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+3차 이후 발표 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+이와 같이 총 3차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적과 관련된 정보를 제공하고 있으며, 수능 성적이 중요한 요소라는 점을 언급하고 있습니다. 그러나 모집인원과 관련된 정보는 다소 불확실하게 표현되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 모집인원과 관련된 세부사항에서 약간의 모호함이 있습니다. 전형요소 반영비율에 대한 설명이 원본 텍스트와 일치하지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, e-비즈니스학과의 수능 성적과 관련된 정보를 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 성적과 관련된 정보를 정확하게 전달하고 있지만, 모집인원과 관련된 정보에서 약간의 불확실성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 표현에서 약간의 모호함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 복잡한 표현이 사용되어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6125168068483928</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>4.6이라는 국어 등급 점수가 e비즈니스학과의 모집인원 10명 중에서 어떤 순위로 반영될지는 확실하지 않습니다. e비즈니스학과의 경우 수능 성적만으로 결정되는 것이 아니라, 전형요소 반영비율이 100%라는 점을 고려하면 수능 성적이 중요한 요인일 것입니다.
+다군 수능(일반학생전형) 모집단위 및 모집인원에서 e비즈니스학과는 다음과 같이 나와 있습니다:
+- 단과대학: 공과대학
+- 계열: 공학
+- 모집단위: e비즈니스학과
+- 모집인원: 10명
+다군 수능(일반학생전형) 전형요소 반영비율에서 전형명은 다군 수능(일반학생전형)이며, 모집단위는 전 모집단위이며, 전형요소 반영비율의 수능은 100%입니다.
+따라서 e비즈니스학과에 대한 정시 추가 합격 가능성은 다음과 같은 절차를 거쳐 판단해야 합니다:
+1. 국어, 수학, 영어 등급점수 및 탐구 영역 성적을 확인합니다.
+2. 해당 모집단위의 모집인원과 현재 지원자의 순위를 비교합니다.
+4.6이라는 국어 등급 점수가 어느 정도의 표준점수로 변환되는지, 그리고 그 점수가 e비즈니스학과의 수능 성적 평균을 넘는지 확인해야 합니다. 또한 다른 영역의 성적이 어떻게 되는지도 중요합니다.
+따라서 정확한 답변을 위해서는 해당 학교의 최종 합격 기준 및 현재 지원자의 전체 성적을 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 학교에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(영어 3.66, 수능 4개 영역 4.53)과 비교했을 때, 정시 등급 5.3으로 합격 가능성이 높다고 주장하는 것은 사실과 다릅니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격하기 어려울 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격이 어려울 수 있다고 하였으나, 생성된 응답은 합격 가능성이 높다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 평균 등급에 대한 언급이 부족합니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 정시 등급 5.3으로 합격 가능성이 높다고 주장하는 것은 원본 텍스트의 정보와 맞지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6959423807518518</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 2.20이며, 이는 비교적 낮은 수준입니다. 따라서 정시 등급이 5.3이라면 최초 합격 가능성은 높습니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. 해당 학과의 모집 인원
+2. 지원 인원 수
+3. 평균 및 표준 편차 등의 통계적 정보
+위에서 제공된 데이터를 바탕으로, 정시 등급이 5.3이라면 경쟁률이 낮은 e비즈니스학과에서는 최초 합격 가능성이 높다고 볼 수 있습니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 동의대학교 입시 홈페이지에서 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 충원합격 순위(31번)와 예비 38번의 가능성에 대한 구체적인 언급이 부족하다. 따라서 일부 사실은 정확하지만, 원본 텍스트의 핵심 정보를 완전히 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트의 충원합격 순위와 예비 38번의 가능성에 대한 정보와 일치하지 않는다. 두 정보 간의 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 충원합격 순위에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결성이 약간 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 사실(충원합격 순위)에 대한 정확성이 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 특정 맥락을 완전히 반영하지 못하고 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.6499971582022915</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, e비즈니스학과의 경쟁률이 8.90이며, 지원 인원이 89명으로 많은 지원자가 있습니다. 따라서 평균적인 경쟁률을 고려하면, 예비합격 가능성은 낮습니다.
+평균적으로는 표준 변환 점수 합의 평균이 426.25이고, 이정도 점수가 필요합니다. 하지만 정확한 예비합격 가능 여부는 개인의 수능 성적과 등급, 그리고 다른 지원자의 성적에 따라 달라집니다.
+만약 더 자세한 정보가 필요하다면, 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률, 충원 합격자 수, 평균 표준 변환 점수와 같은 추가 정보를 제공하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 평균 등급과 비교하여 합격 가능성에 대한 명확한 수치를 제공하지 않기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 현재 성적이 간호학과에 합격하기 어려울 수 있다는 점을 강조하고 있습니다. 그러나 경쟁률과 평균 표준 변환 점수에 대한 정보가 추가되면서 약간의 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 경쟁률과 평균 점수에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하지만, 원본 텍스트의 평균 등급과 비교하여 합격 가능성에 대한 명확한 수치를 제공하지 않기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.634474928462241</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 의료보건생활대학 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원자의 평균 표준 변환 점수는 353.48이고, 이 값이 현재의 성적 3.44보다 훨씬 높습니다.
+현재의 성적이 간호학과에 합격할 확률을 정확히 예측하기 위해서는 더 많은 정보가 필요합니다. 그러나 일반적으로 표준 변환 점수가 평균 이상일 경우 합격 가능성은 높아집니다. 현재의 성적 3.44이면, 동의대학교 간호학과에 합격하는 것은 어렵다고 볼 수 있습니다.
+만약 더 자세한 정보나 추가적인 도움이 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.52라는 성적이 상대적으로 낮다고 언급하고 있지만, 원문에서는 2.52가 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에서 일부 불일치가 발생합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 부분이 있지만, 2.52라는 성적에 대한 해석이 상반되어 일관성이 떨어집니다. 원문은 합격 가능성이 높다고 하였으나, 생성된 응답은 낮다고 평가하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 경쟁률과 평균 점수에 대한 추가 정보를 포함하고 있습니다. 그러나 원문에서 강조한 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제시된 경쟁률과 평균 점수는 새로운 정보이지만, 원문에서 제공한 정보와의 일관성이 부족하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 평균 이하로 평가됩니다. 사실관계와 일관성에서 문제가 있으며, 원문과의 연결성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어졌습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6222040783753381</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 성적은 동의대학교 간호학과의 경쟁률과 평균 점수를 고려하면 상대적으로 낮습니다. 하지만, 정시 모집에서 최종합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 2024학년도 간호학과의 경쟁률이 6.59로 매우 높습니다.
+2. **평균 점수**: 평균 점수가 353.48이며, 표준 편차가 4.66으로 비교적 낮은 편입니다.
+따라서, 2.52라는 성적이 간호학과의 평균 점수와 비교해 보면 상대적으로 낮습니다. 하지만, 동등한 학생들이 더 높은 점수를 받았을 수도 있고, 다른 요인들(예: 면접 결과, 서류 평가 등)이 합격에 영향을 미칠 수 있습니다.
+**추천 사항**:
+1. **면접 준비**: 면접에서 자신의 지원 동기와 학업 계획을 잘 전달할 수 있도록 준비하세요.
+2. **서류 준비**: 서류 평가에서도 긍정적인 결과를 얻을 수 있도록 철저히 준비하세요.
+최종합격 가능성은 정확하게 예측하기 어렵습니다. 하지만, 성적 외의 요인들을 잘 준비한다면 합격 가능성은 높아질 것입니다. 더 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률, 충원 합격자 수, 평균 점수 등의 정보를 포함하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교할 때, 정시 성적이 3.7인 경우 합격 가능성이 낮다는 점을 명확히 전달하지 못하고 있습니다. 또한, 일부 정보는 원본 텍스트와 관련이 없거나 불필요한 세부사항을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트와 직접적으로 연결되지 않습니다. 따라서 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 대한 정보와 지원자의 성적에 대한 질문에 관련된 내용을 포함하고 있어 대체로 관련성이 높습니다. 그러나 일부 추가 정보는 질문의 핵심과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 마지막 문장은 다른 언어로 되어 있어 흐름이 끊기는 느낌을 줍니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히 마지막 문장은 응답의 주제와 연결되지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심적인 사실을 충분히 반영하지 못하고 있습니다. 특히 합격 가능성에 대한 결론이 명확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 정보의 정확성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 일부 적절한 의미를 전달하지만, 마지막 문장이 다른 언어로 되어 있어 의미 전달이 혼란스러워집니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 정보가 불필요하게 추가되어 있어 명확한 이해를 방해할 수 있습니다. 특히 마지막 문장은 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6353728769682081</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도 간호학과의 경쟁률은 6.59이며, 충원 합격자는 37명입니다. 지원자의 평균 점수는 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 353.48이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 481.70입니다.
+당신의 정시 성적이 3.7이라면, 이는 수능 4개 영역 등급의 평균보다 낮습니다. 그러나 간호학과의 경쟁률이 높고 충원 합격자도 많으므로, 단순히 성적만으로 합격 여부를 판단하기는 어렵습니다.
+다음 사항들을 고려해보세요:
+1. 수능 점수: 평균 481.70에 가까운 점수가 필요합니다.
+2. 진로선택과목 성적: 간호학과에서는 이 과목의 성적이 중요하게 반영됩니다.
+3. 학생부 교과성적: 전반적인 학업 역량을 보여주는 학생부 교과성적이 중요합니다.
+따라서, 정시 성적이 3.7이라면 간호학과에 합격하기는 어렵다고 볼 수 있습니다. 그러나 최종 합격 여부는 여러 요소가综上所述，你能简要总结一下这位考生的情况吗？包括他的成绩、申请的专业以及被录取的可能性。</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 4.28로 잘못 언급하고 있으며, 이는 원본 텍스트의 2.34와 상충합니다. 또한, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이러한 정보는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 특히, 평균 영어 등급에 대한 잘못된 정보와 경쟁률에 대한 언급이 원본 텍스트와 상충합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 지원자의 정시 성적과 합격 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불연속적이며, 주제 간의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 가지로 다릅니다. 특히 평균 영어 등급과 관련된 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 일부 정보는 원본 텍스트와 일치하지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6647565100433778</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 경쟁률은 6.59이며, 충원 합격 (후보순위)은 37명입니다. 지원자의 정시 성적이 2.58이면, 이는 평균 영어 등급인 4.28보다 낮습니다. 또한, 간호학과의 경우 경쟁률이 매우 높기 때문에, 정시 성적만으로 합격하기는 어려울 가능성이 있습니다.
+하지만, 최종 합격 여부는 단순히 영어 등급뿐만 아니라 수능 4개 영역 등급의 평균과 표준 편차, 그리고 지원자의 전체적인 성적이 고려됩니다. 따라서, 다른 영역에서 높은 점수를 받았다면 합격 가능성은 있을 수 있습니다.
+만약에 더 자세한 정보나 분석이 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과의 모집인원 및 전형 요소에 대한 구체적인 정보를 제공하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 판단을 내리지 않고 있습니다. 원문에서 제시된 충원합격 정보와는 다소 거리가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 충원합격 정보와 일치하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 부족합니다. 그러나 원문에서 제시된 웹사이트를 방문하라는 조언은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과와 관련된 정보를 제공하려고 하지만, 원문에서의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그럼에도 불구하고 관련된 정보와 조언을 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 연결성이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실을 반영하지 않으며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 정보의 정확성과 일관성에서 부족함이 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있으며, 적절한 맥락에서 정보를 제공합니다. 그러나 원문에서의 핵심 질문에 대한 직접적인 답변이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5785485914599012</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 구체적인 모집인원 및 전형 요소가 없습니다. 게임공학과의 경우, 일반적으로 공과대학 소속이며, 모집인원이나 전형 요소 등이 다양하게 설정될 수 있습니다.
+다군 수능(일반학생전형)에서는 공과대학에 속한 학과들의 모집인원을 확인할 수 있는데, 이 중 게임공학과와 관련된 학과가 포함되어 있는지 확인해야 합니다. 예를 들어, 제품디자인공학과나 컴퓨터공학과 등이 해당될 수 있습니다.
+또한, 동점자 처리 기준 등을 고려하여 붙을 확률을 판단하는 것이 중요합니다. 제공된 정보로는 정확히 결정하기 어렵습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 공식 모집요강을 확인하시거나, 대학 입학처에 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 등급 4.16이 게임공학과의 평균 등급 4.78보다 낮다고 잘못 언급하고 있습니다. 원본 텍스트에 따르면 4.16은 평균 등급보다 높은 성적입니다. 이로 인해 여러 가지 사실이 잘못 전달되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.16이 평균 등급보다 높다고 명시하고 있지만, 생성된 응답에서는 낮다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 면접 준비와 서류 제출에 대한 조언도 포함되어 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 동떨어진 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트의 핵심 내용과의 연결이 부족하여 일관된 흐름이 약간 떨어집니다. 그러나 전반적으로는 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 등급에 대한 잘못된 해석이 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성이 부족하고, 정확성 또한 매우 낮습니다. 그러나 관련성 및 유창성에서 다소 긍정적인 요소가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 수능 등급에 대한 잘못된 해석이 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.726672914749265</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 게임공학과의 평균 등급(4.78)보다 낮습니다. 따라서 경쟁률이 높고, 평균 등급이 높기 때문에 추가 합격 가능성은 낮을 것으로 예상됩니다.
+게임공학과의 경우 모집인원 3명에 지원 인원 16명으로 경쟁률이 5.33입니다. 이는 매우 높은 경쟁률이며, 평균 등급이 높기 때문에 수능 등급이 조금 낮더라도 추가 합격 가능성은 매우 낮습니다.
+하지만 최종적으로 결정되는 것은 면접 성적과 서류 평가 등 다른 요소들입니다. 따라서 추가 합격 가능성을 확신하기 위해서는 면접 준비와 서류 제출을 철저히 해야 합니다.
+면접에서는 지원동기, 학업 계획, 학업역량, 전공적합성 등을 잘 준비해야 하며, 서류에서는 학교생활기록부를 체크하고 필요한 추가 서류들을 미리 준비하는 것이 좋습니다.
+만약 추가 합격 가능성을 확신하기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 정보를 확인하거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 GPA 3.75가 경영정보학과에 지원하는 데 충분하다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 최종 등록 여부가 여러 요인에 따라 결정된다는 점은 원본 텍스트에서 명시되지 않았습니다. 따라서 일부 정보가 추가되었지만, 전반적으로 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하여 GPA에 대한 정보를 제공하지만, 면접 성적, 서류 평가 등 추가적인 요인을 언급함으로써 원본 텍스트와의 일관성이 떨어질 수 있습니다. 원본 텍스트는 GPA에 대한 정보만을 제공하고 있으므로, 추가된 정보가 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, GPA 3.75와 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 GPA와 관련된 정보가 정확하지만, 최종 등록 여부에 대한 추가적인 요인들이 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6839000531519552</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>3.75의 GPA는 경영정보학과에 지원하는 데 충분한 점수입니다. 그러나 최종 등록 여부는 여러 요인에 따라 결정되며, 주요 요인은 다음과 같습니다:
+1. **면접 성적**: 면접 평가 영역 및 배점에서 학업역량과 전공적합성의 점수가 중요합니다.
+2. **서류 평가**: 지원동기와 입학 후 학업 계획, 고교(직장) 생활 중 학업에 대한 어려움과 해결책 등이 잘 서술되어 있어야 합니다.
+3. **전공적합성**: 본인이 경영정보학과를 선택한 이유와 관련된 교내 활동 경험을 구체적으로 설명해야 합니다.
+4. **학업역량**: 고교(직장) 생활 중 학업에 대한 어려움과 해결책, 그리고 이를 극복하기 위한 노력 등을 잘 서술해야 합니다.
+5. **서류 제출의 정확성**: 허위사실이 없고, 서류가 모두 정확하게 제출되어야 합니다.
+6. **정시 모집군 변경**: 2024학년도에 경영정보학과는 어떤 정시 모집군에 속하는지 확인해야 합니다.
+따라서, GPA 3.75로 최초 등록자로 가능할지는 면접 성적, 서류 평가 결과 등을 종합적으로 판단하여 결정됩니다. 자세한 사항은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 성적에 대한 언급이 없습니다. 그러나, 경영정보학과의 성적 기준에 대한 일반적인 조언을 포함하고 있어 일부 사실성을 유지하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 특히 평균 성적에 대한 구체적인 언급이 부족합니다. 그러나, 경영정보학과의 성적 기준에 대한 일반적인 조언은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 경영정보학과의 성적 기준에 대한 정확한 정보를 제공하지 않습니다. 그러나 일반적인 조언은 유용할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있으며, 경영정보학과의 성적 기준에 대한 일반적인 조언을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.665565104438632</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적 기준을 확인하기 어렵습니다. 경영정보학과의 정시 모집에 대한 자세한 성적 기준은 해당 대학의 입학처 웹사이트를 참조하시거나, 직접 연락하여 문의하시는 것이 좋겠습니다.
+만약 추가 정보가 필요하다면, 제공된 수능(일반학생전형) 최종등록자와 관련된 통계를 바탕으로 추론해볼 수 있습니다. 예를 들어, 경쟁률이 높은 학과일수록 더 높은 성적 기준을 요구하는 경우가 많습니다.
+따라서, 가장 정확한 정보는 해당 대학의 입학처 웹사이트나 직접 문의하여 얻는 것이 좋겠습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이라는 점수가 좋은 점수라고 언급하고 있지만, 원본 텍스트에서는 이 점수가 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 일치하지 않는 점이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인에 따라 합격 가능성이 달라질 수 있다고 언급하고 있지만, 원본 텍스트의 정보와는 일치하지 않는 부분이 있습니다. 특히, 5.33이라는 점수가 낮은 성적이라는 원본의 주장을 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요인을 설명하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 5.33이라는 점수가 좋은 점수라고 주장하지만, 원본 텍스트에서는 이 점수가 평균보다 낮다고 명시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균 이상의 점수를 받았지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있지만, 일부 정보가 원본과 상충하여 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6211957390035985</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 표준점수는 대체로 좋은 점수입니다. 하지만 동의대학교 경영정보학과의 정시 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **전형 유형**: 일반학생전형에서는 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 교과 성적을 평균 점수로 계산하여 합격 여부를 결정합니다.
+2. **교과 성적 평균**: 주어진 5.33은 한 과목의 표준점수일 수 있습니다. 여러 과목의 평균 점수가 필요하므로, 전체 교과 성적이 어느 정도인지 확인해야 합니다.
+만약 전체 교과 성적이 4.0 이상이라면, 합격 가능성은 높습니다. 하지만 정확한 판단을 위해서는 동의대학교 경영정보학과의 정시 모집단위별 최저 합격 점수를 확인하는 것이 좋습니다. 해당 정보는 동의대학교 입학처 웹사이트나 공식 안내서에서 확인할 수 있습니다.
+만약 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.82이고, 수능 4개 영역 등급 평균이 4.74라고 명시되어 있지만, 생성된 응답에서는 최종등록자들의 성적 평균이 427.00이라고 잘못 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 언급하고 있지만, 생성된 응답에서는 최초 등록이 매우 어려울 것이라고 말하고 있어 상반된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 3.33의 성적에 대한 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히 성적에 대한 해석이 원본 텍스트와 일치하지 않아 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 성적 평균을 잘못 제시하고 있으며, 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7632934338902255</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 모집 정보를 확인해보겠습니다.
+바이오응용공학부는 3개의 전공으로 구성되어 있습니다:
+1. 의생명공학과
+2. 바이오의약공학과
+3. 식품공학과
+현재 제공된 데이터에서, 바이오응용공학부의 최종등록자들의 성적 평균은 427.00이며, 표준 편차는 11.25입니다. 이는 매우 높은 수치로, 일반적으로 최초 등록자들은 이보다 더 높은 점수를 보여줍니다.
+당신의 성적 평균이 3.33이라면, 현재 바이오응용공학부에 최초 등록을 하는 것은 매우 어려울 것으로 예상됩니다. 하지만 정시 모집에서 합격 가능성은 개인의 전반적인 경쟁력을 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 정시모집군 변경사항에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 방사선학과의 평균 등급과 관련된 정보는 잘못 해석하고 있습니다. 현재 정시 등급이 4.4라는 점을 긍정적으로 평가하고 있으나, 원본 텍스트에서는 이 성적이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.4의 성적이 방사선학과의 평균 등급보다 낮다고 명시하고 있지만, 생성된 응답은 이를 반박하는 내용으로, 두 정보 간에 모순이 발생하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과와 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 논의도 포함되어 있어 원본 텍스트와 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 특히, 4.4의 성적에 대한 해석이 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 제대로 반영하지 못하고 있습니다. 특히, 성적에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6377541162103464</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 정시모집군 변경사항을 살펴보겠습니다.
+방사선학과는 2023학년도에는 (나)군으로 모집되었으나, 2024학년도에는 (가)군으로 변경되었습니다. 이에 따라 학생부종합 평가영역과 전형요소 반영비율 등이 바뀌었습니다.
+현재 성적인 4.4정점은 비교적 좋은 성적으로, 방사선학과의 일반학생전형을 지원하는 데는 충분할 것으로 보입니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 방사선학과의 최저등급이나 평균 등급, 그리고 해당 전형의 경쟁률 등을 고려해야 합니다.
+방사선학과에 대한 자세한 정보와 최신 변경사항은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보는 누락되어 있습니다. 또한, 방사선학과의 경쟁률이 7.20이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답은 이 점수가 낮다고 주장하고 있습니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 주요 포인트인 평균 등급에 대한 정보는 포함되어 있지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 요소 간의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 방사선학과의 경쟁률에 대한 정보는 잘못된 것입니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 특히 경쟁률에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5921484765664868</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 경쟁률을 고려하면 상대적으로 낮은 편입니다. 방사선학과의 경쟁률이 7.20으로 매우 높기 때문에, 2.66이라는 점수로는 충분히 합격할 확률이 낮습니다.
+하지만 정확한 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **평균점수와 표준편차**: 방사선학과의 평균점수가 338.76이고, 표준편차가 5.40입니다. 이 점수대에서는 상위권에 속하지 못합니다.
+2. **개인적합성 및 서류평가**: 학생부종합 평가 영역에서의 성적이 중요하며, 면접에서도 좋은 결과를 얻어야 합니다.
+따라서 2.66이라는 점수로는 방사선학과에 합격하기 어렵다고 판단할 수 있습니다. 더 높은 점수를 목표로 하거나 다른 전공을 고려해 보시는 것이 좋겠습니다.
+더 자세한 정보나 도움이 필요하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 3.66의 성적이 평균보다 높다는 점과 경쟁률이 낮아졌다는 긍정적인 요소를 언급하고 있습니다. 그러나, 서류 평가와 면접의 중요성을 강조하는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 성적과 경쟁률에 대한 긍정적인 해석을 제공하고 있지만, 서류 평가와 면접에 대한 추가적인 정보는 원본 텍스트와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경찰행정학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 성적, 서류 평가, 면접 등 다양한 요소를 고려하여 관련 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 서류 평가와 면접에 대한 설명이 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 서류 평가와 면접의 비율에 대한 구체적인 수치가 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 긍정적인 평가를 받고 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 서류 평가와 면접에 대한 추가적인 정보가 원본 텍스트의 맥락과는 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있으며, 독자가 쉽게 내용을 파악할 수 있도록 돕고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.6321131192131616</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적은 경찰행정학전공 농어촌 전형에서 좋은 점수입니다. 하지만 합격 여부는 여러 요소에 따라 결정되므로 단순히 성적만으로 판단하기 어렵습니다.
+1. **성적**: 평균적으로 3.66의 성적은 경쟁이 치열한 농어촌 전형에서 좋은 점수입니다. 하지만 다른 지원자들의 성적이 어떻게 나왔는지, 그리고 해당 학교의 수능최저기준 등도 고려해야 합니다.
+2. **서류 평가**: 서류평가 비율이 70%로 높은 만큼, 학생부 교과성적 외에도 지원자들의 학업태도, 협업 능력, 전공적합성 등이 중요하게 고려됩니다. 따라서 성적이 좋은 경우에도 서류가 충분히 강한 지원자가 되어야 합니다.
+3. **면접**: 면접 비율은 30%로, 이는 학생의 인성과 적성을 평가하는 중요한 단계입니다. 준비를 철저히 하여 긍정적인 이미지를 남기는 것이 중요합니다.
+4. **전공적합성**: 지원자의 전공적합성도 중요한 요소 중 하나입니다. 자신의 관심사와 열정을 잘 표현하고, 관련 활동이나 경험을 강조하는 것이 좋습니다.
+5. **경쟁률**: 경찰행정학전공 농어촌 전형의 모집 인원과 지원자의 수를 고려하여 경쟁률을 파악해야 합니다. 경쟁률이 높다면 합격 가능성은 낮아질 수 있습니다.
+따라서, 3.66의 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다. 성적 외에도 서류평가와 면접 준비가 중요하며, 지원자의 전공적합성과 경쟁률을 고려하여 최선을 다해야 합니다.
+더 자세한 정보나 도움이 필요하시다면 "https://ipsi. deu. ac. kr/main. do"를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 확률이 낮다고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 확률이 달라질 수 있다고 명시하고 있습니다. 따라서 일부 정보는 정확하지만, 전반적으로 원문과의 일치도가 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시한 특정 학과에 대한 정보가 부족하고, 예비 25번의 합격 확률에 대한 일반적인 설명을 제공합니다. 이로 인해 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원문에서 언급된 특정 학과에 대한 정보가 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 확률에 대한 일반적인 설명을 제공하지만, 원문에서 제시한 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원문과의 일치도가 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원문과의 일치도가 떨어져 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5514212458674872</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자 중에서 선발 인원은 제한적이므로 붙는 확률은 상대적으로 낮습니다. 하지만 정시 일반학생 전형에선 여러 학생들이 지원하기 때문에, 개인의 성적과 면접 등의 평가 결과에 따라 붙을 수 있습니다.
+나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)은 서류평가와 면접평가를 통해 지원자를 평가하므로, 성적 외에도 학업역량, 전공적합성 등 다양한 요소가 고려됩니다. 따라서 개인의 특성이 잘 반영되어 있다면, 작은 가능성이라도 붙을 수 있습니다.
+만약 확실한 결과를 원한다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 자세한 정보와 지원 절차를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 법경찰행정학부에 대한 정보가 잘못되어 있으며, 해당 학부는 존재하지 않는다고 명시된 원문과 상충합니다. 또한, 제공된 성적 예측도 원문과 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일관성이 없으며, 법경찰행정학부에 대한 정보가 잘못된 점에서 서로 모순됩니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문과 관련이 없으며, 동의대학교의 법경찰행정학부에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원문과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 평가 기준에서 낮은 점수를 받았으며, 원문과의 관계가 전혀 없기 때문에 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되었으나, 주제와의 관련성이 없기 때문에 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7472630260103738</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 법학과의 경쟁률은 5.71이며, 모집인원은 7명이고 지원인원은 40명입니다. 이에 따라 평균적인 성적을 예측해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 315.78
+- **영어 등급의 평균**: 3.11
+이러한 데이터를 바탕으로, 안정권에 들어갈 수 있는 성적과 문을 닫고 들어갈 수 있는 성적을 예측해보겠습니다.
+**안정권 (충원 합격 후보순위):**
+- 충원 합격 후보 순위는 13명입니다. 이는 경쟁률이 높아서 안정적으로 합격할 수 있는 점수를 의미합니다.
+- **평균 성적 예측**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 315.78입니다.
+**문을 닫고 들어갈 수 있는 성적:**
+- 경쟁률이 높아서 문을 닫고 들어갈 수 있는 점수는 더 높아질 것입니다.
+- **평균 성적 예측**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 340 이상이 될 것으로 예상됩니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**은 315.78 이상이어야 안정권에 들 수 있고, 340 이상이면 문을 닫고 들어갈 수 있을 것으로 예상됩니다.
+만약 더 정확한 예측을 원하시면, 동의대학교 입학처 웹사이트를 방문하여 최신 정보를 확인하거나, 입시 전문가와 상담하는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과가 아동학과로 변경되었다는 사실을 정확히 반영하고 있습니다. 그러나 "보육가정상담학과의 최초합격자의 경쟁률은 5.33"이라는 부분은 원문에서 언급된 "정시 등급"과 혼동될 수 있는 표현입니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "경쟁률"이라는 용어 사용이 원문에서의 "정시 등급"과 일치하지 않아 일관성이 떨어집니다. 원문에서의 정보와 다소 다른 맥락으로 해석될 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 아동학과에 대한 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 "경쟁률"과 "정시 등급"의 혼동으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "경쟁률"이라는 표현이 원문에서의 "정시 등급"과 다르게 해석될 수 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, "경쟁률"이라는 용어 사용이 원문과의 의미적 일치를 약간 저해하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6433970367519829</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항을 보면, 보육·가정상담학과는 아동학과로 변경되었습니다. 따라서 현재의 정보에서는 아동학과에 대한 경쟁률이 필요합니다.
+보육가정상담학과와 아동학과의 경쟁률을 비교해볼 수 있습니다. 제공된 데이터에서 보육가정상담학과의 최초합격자의 경쟁률은 5.33입니다. 이는 아동학과의 경쟁률과 동일합니다.
+따라서, 정시 산출 등급이 5.33인 경우, 아동학과에 합격할 가능성이 있습니다. 하지만 확실한 것은 아니며, 실제 모집 인원, 지원 인원 등의 요소가 함께 고려되어야 합니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 번호 12번에 대한 정보가 잘못된 해석을 포함하고 있습니다. 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 있다고 언급하고 있지만, 생성된 응답은 '영어교과 전 과목 등급 평균 상위자'라는 기준을 언급하며 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 예비 번호에 따른 합격 가능성을 설명하고 있지만, 생성된 응답은 다른 기준을 제시하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 번호와 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 잘못된 기준을 언급하여 일부 비관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 내용을 바탕으로 하여야 하지만, 다른 기준을 언급함으로써 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 일치하지 않는 정보를 포함하고 있습니다. 예비 번호 12번에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않지만, 주제와 관련된 내용을 다루고 있습니다. 그러나 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.4564786961463363</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>12번을 받으셨다면, 이는 동점자 처리 기준 중 하나인 '영어교과 전 과목 등급 평균 상위자'에 해당합니다. 따라서, 동의대 보육가정상담 충원 합격 3차에서 합격 가능성은 있습니다.
+하지만, 확실한 것은 아닙니다. 최종 합격 여부는 여러 요인에 따라 결정되며, 다른 지원자의 성적과 기준 등급 평균도 고려됩니다. 따라서, 정확한 합격 가능성을 확인하려면 입학관리팀에서 상세히 문의하거나, 공지된 홈페이지를 통해 개별 조회하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 4.75의 성적이 높은 점수라고 언급하지만, 유아교육학과의 경우 4.75로 지원하기 어렵다고 명시된 원문과 상충합니다. 유아교육학과는 4.18의 평균 성적을 요구하므로, 4.75로 지원하기 어렵지 않다는 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 유아교육학과에 대한 정보가 원문과 일치하지 않으며, 4.75의 성적이 유아교육학과에 지원하기에 적합하다고 주장합니다. 이는 원문에서 제시된 정보와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있으며, 관련된 조언도 포함되어 있습니다. 그러나 원문에서 제시된 구체적인 데이터와 비교할 때, 일부 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 유아교육학과에 대한 정보가 원문과 일치하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 유아교육학과에 대한 성적 기준에 대한 정보가 부정확합니다. 원문에서는 4.75로 지원하기 어렵다고 명시되어 있으나, 생성된 응답은 이를 반박하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 원문과 비교할 때 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 유아교육학과에 대한 정보와 조언을 제공하지만, 원문과의 불일치로 인해 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7240439183687537</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 정시모집에서 고득점이 요구되는 학과들에서는 충분히 경쟁력을 갖추실 수 있을 것입니다.
+유아교육학과의 경우, 이 성적으로는 어렵지 않을 것으로 보입니다. 유아교육학과는 일반적으로 정시 모집에서 비교적 낮은 점수를 요구하는 편이지만, 각 학교마다 정시모집의 경쟁률과 수능 성적 기준이 다르므로, 정확한 판단을 위해서는 해당 대학의 공고를 확인해 보시는 것이 좋습니다.
+특히 유아교육학과는 교직 관련 과목들이 많기 때문에, 학업역량과 전공적합성 부분에서 좋은 평가를 받으실 수 있도록 준비하시면 좋을 것 같습니다. 추가로 면접에서도 긍정적인 이미지를 주시는 것이 중요할 것입니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi.deu.ac.kr/main.do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육·가정상담학과의 경쟁률과 충원 합격자 수에 대한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실인 아동학과의 평균 등급(6.33 및 7.08)과 비교하여 현재 정시 등급(4.16)이 평균 등급보다 높은 성적이라는 점을 잘 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 정보를 제공하지만, 아동학과의 평균 등급에 대한 언급이 없고, 경쟁률과 충원 합격자 수에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 핵심 내용과는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육·가정상담학과에 대한 정보를 제공하고 있으며, 질문자의 상황에 대한 분석을 포함하고 있습니다. 그러나 원본 텍스트의 주요 포인트인 정시 등급과 평균 등급 비교에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실을 누락하고 있어 정확성 점수가 낮습니다. 특히, 평균 등급과 관련된 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성, 일관성, 정확성에서 부족한 점이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 질문자의 상황에 적절한 조언을 제공합니다. 그러나 원본 텍스트의 핵심 내용과의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장은 다소 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5210271186683115</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 보육·가정상담학과로 지원하실 경우, 현재 정보를 바탕으로 분석해보겠습니다.
+보육·가정상담학과는 2023년도에는 아동학과였으며, 2024년도에는 아동학과로 명칭이 변경되었습니다. 2024년도에 해당 학과의 경쟁률은 4.57이며, 충원 합격자는 4명입니다.
+현재您的问题似乎是关于东国大学的自主招生换算等级是否能够被保育·家庭咨询学专业录取。根据您提供的信息，2024年该专业的平均换算等级为4.16，而竞争比率为4.57，录取人数为4人。
+基于这些数据，您的换算等级（4.16）接近于该专业的平均换算等级，并且略低于一些可能的最高分。考虑到竞争比率和录取人数，您有被录取的可能性，但并不是非常高。具体能否录取还需要考虑其他因素如成绩分布、加权分数等。
+建议您可以参考以下步骤：
+1. **详细了解**：查看东国大学2024年自主招生的具体要求和流程。
+2. **准备充分**：确保所有申请材料齐全且符合要求。
+3. **咨询老师或学长学姐**：获取更多关于该专业的录取信息，以便更好地准备。
+如果还有疑问，可以访问东国大学的官方网站（https://ipsi. deu.ac.kr/main.do）以获得更多信息。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상충되는 정보를 제공합니다. 정시모집군이 변경되었다고 언급하지만, 이는 사실이 아닙니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 모순되는 내용을 포함하고 있습니다. 원문은 정시 지원이 불가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시모집군의 변경에 대해 설명하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보가 포함되어 있지만, 주제에서 벗어난 내용이 많습니다. 정시 지원이 불가능하다는 질문에 대한 직접적인 답변이 부족하여 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제와의 연결이 약해 논리적인 흐름이 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석될 수 있는 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 내용이 명확하지만, 주제와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4069352961676873</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집군이 변경되어 "소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"로 바뀌었습니다. 이전에는 "창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"였던 것을 참고하시면 좋을 것 같습니다.
+2024학년도에 소프트웨어공학부로 변경된 경우, 평균 등급으로는 4.5 이상 받아야 경쟁력을 갖추게 됩니다. 이는 과거의 데이터를 바탕으로 추정한 것입니다. 실제 수능 점수와 경쟁률은 매년 변동이 있으므로, 정확한 정보는 해당 대학의 입시 홈페이지에서 확인하시기 바랍니다.
+입시 관련 자세한 내용은 "https://ipsi.ipsi.ipsi.ipsi"를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접에서의 질문 내용과 준비 사항에 대해 언급하고 있지만, 원본 텍스트에서 명시된 서류 평가와 면접 고사에 대한 구체적인 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 면접의 중요성과 준비 사항에 대해 설명하고 있지만, 원본 텍스트의 서류 평가와 면접 고사에 대한 정보와는 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 내용을 다루고 있어 원본 텍스트와 관련성이 높습니다. 그러나 서류 평가에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 조언이 일관되게 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 정보는 제공하지만, 원본 텍스트의 서류 평가와 면접 고사에 대한 정확한 정보를 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 의미를 잘 전달하고 있으며, 주제와 관련된 내용을 적절하게 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.3662957949891082</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접에서는 주로 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 따라서 세특 내용은 중요하지만, 면접 점수보다는 지원자의 진실한 답변과 자기소개가 더 중점을 두어야 합니다.
+따라서 세특 준비 시에는 다음과 같은 사항을 고려해 보세요:
+1. 지원동기와 학업계획에 대한 명확한 답변
+2. 학교생활 및 동아리 활동에서의 경험과 역량
+3. 전공적합성과 관련된 교내활동 또는 프로젝트 참여 경력
+따로 서류는 제출하지 않지만, 면접 질문을 바탕으로 작성한 자기소개서나 학업계획서 등을 준비하는 것이 좋습니다.
+면접 시에는 진실한 답변과 자신감 있는 태도를 유지하며, 입학사정관들이 지원자에게 관심을 가지고 싶어할 만한 내용을 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 평균 점수와 관련된 정보에서 오류가 있습니다. 원본 텍스트에서는 최초합격자의 평균 등급이 4.12라고 명시되어 있지만, 생성된 응답에서는 4.08이 평균 점수보다 낮다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.08이 평균 등급보다 약간 높은 수준이라고 설명하고 있지만, 생성된 응답은 이를 반박하는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 일부 내용은 원본 텍스트와 직접적으로 관련이 없는 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 정원 외 모집에 대한 언급이 원본 텍스트의 주제와 연결되지 않는 느낌을 줍니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 평균 점수에 대한 잘못된 해석이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족한 점이 많아 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.8153788228373736</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수를 가지고 동의대학교 소프트웨어공학부에 최초합격이 가능한지 판단하기 위해서는 해당 학과의 경쟁률과 평균 점수가 중요합니다.
+현재 제공된 정보에서는 정시 모집에서 소프트웨어융합학과의 경우, 충원 합격 (후보순위)은 3이며, 수능 4개 영역  (가산점 포함) 표준 변환 점수 합의 평균은 430.10입니다. 이는 경쟁률이 높고 평균 점수가 상대적으로 높다는 것을 의미합니다.
+당신의 수능 점수인 4.08은 평균 점수(430.10)에 비해 낮습니다. 따라서 정시로는 최초합격이 어려울 것으로 보입니다. 하지만, 동의대학교 소프트웨어공학부는 정원 외 모집에서도 학생을 선발합니다.
+정원 외 모집에서는 전형요소 반영비율이 서류 60%와 면접 40%로 구성되어 있습니다. 따라서 수능 점수뿐만 아니라, 서류 평가에서의 성적과 면접 성적이 중요하게 작용합니다.
+따라서, 정시로는 최초합격이 어려울 것으로 보이나, 정원 외 모집에서는 학생부 종합전형을 통해 가능성을 살펴볼 수 있습니다. 이 경우, 학생부에서의 활동과 성적, 면접 준비가 중요하게 작용할 것입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 점을 언급하고 있지만, "2024학년도에 대한 정보가 주어지지 않았습니다"라는 부분은 다소 모호하며, 원문에서 언급된 정보와 일치하지 않는 부분이 있습니다. 또한, 다른 학과들의 경쟁률과 지원 인원에 대한 정보는 원문에 포함되어 있지 않으므로 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 부분이 있지만, 다른 학과들의 경쟁률과 지원 인원에 대한 언급은 원문에 없는 정보로, 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 질문에 관련된 정보를 제공하고 있으며, 추가적인 정보 출처를 안내하고 있습니다. 그러나 원문에서 제공된 정보와는 다소 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 잘 정리되어 있습니다. 그러나 원문과의 연결성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 제공되지 않은 정보(다른 학과들의 경쟁률 등)를 포함하고 있어 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 정확하지만 다른 부분에서는 부정확한 정보가 포함되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 일부 정보는 원문과 일치하지 않으므로 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6974382874190556</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보가 주어지지 않았습니다. 현재 제공된 정보는 다른 학과들의 경쟁률, 지원 인원 등이 포함되어 있습니다. 소프트웨어융합학과의 경우 특정한 변경사항이나 평균 5등급으로의 가능성을 확인하기 위해서는 해당 학과의 정시모집군 변경 사항 및 평균 등급 등의 정보가 필요합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 대구교육대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 입학 가능성을 판단하기 위해 추가 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서는 귀하의 성적이 평균 등급보다 높다고 명시하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 명확한 판단을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 입학 가능성에 대한 결론이 다릅니다. 원본에서는 합격 가능성이 높다고 판단했으나, 생성된 응답은 추가 정보가 필요하다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학과의 입학 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본의 결론과 다르게 접근하여 약간의 일관성 문제가 발생합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 귀하의 성적이 평균보다 높다는 점을 간과하고 있어 정확성에서 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부는 잘 반영하고 있으나, 원본의 핵심 결론을 놓치고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본의 명확한 판단을 반영하지 못해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6285649567564542</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 대한 자세한 정보를 제공하기 위해서는 해당 학과의 경쟁률, 평균 점수 등이 필요합니다. 현재 주어진 정보만으로는 특정 학과의 입학 가능성을 판단하기 어렵습니다.
+특정 학과의 입학 가능성은 다음과 같은 요소들로 결정됩니다:
+1. **경쟁률**: 지원자의 수와 모집인원을 비교하여 결정됩니다.
+2. **평균 점수 및 표준 편차**: 지원자들의 평균 점수와 그 변동성을 고려합니다.
+3. **개별 지원자의 점수**: 지원자의 개인적인 점수가 합격 기준에 미치는 영향을 결정합니다.
+주어진 정보를 바탕으로, 정시 성적이 4.28이면 동의대학교 신소재공학부에서 입학 가능성을 판단하기 위해서는 해당 학과의 최신 경쟁률 및 평균 점수 등을 확인해야 합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 참조하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, "자기소개서 작성은 필수사항이 아닙니다"라는 표현은 다소 모호하게 해석될 수 있습니다. 또한, 자기소개서를 제출하면 더 나은 지원자로 보여질 수 있다는 주장은 주관적이며, 공식적인 정보가 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 자기소개서를 제출하는 것이 좋다는 추가 정보는 원문에서 제공된 정보와 일치하지 않습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 직접적으로 관련된 정보를 제공합니다. 자기소개서의 필요성에 대한 설명과 추가적인 조언이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 자기소개서의 필요성에 대한 설명이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 자기소개서 제출의 필요성에 대한 주장은 정확하지 않을 수 있습니다. 원문에서 명확히 자기소개서가 필요 없다고 언급하고 있기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 일관성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 다만, 자기소개서 제출에 대한 주관적인 의견이 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6051176750090378</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서 작성은 필수사항이 아닙니다. 이 전형에서는 주로 수능 점수와 실기/실적을 평가합니다. 하지만 자기소개서를 제출하면 더 나은 지원자로 보여질 수 있으므로, 가능하다면 작성해보시는 것이 좋습니다.
+만약 작성하려고 한다면, 다음과 같은 내용들을 포함할 수 있습니다:
+1. 학업에 대한 열정과 목표
+2. 지원하는 전공과 관련된 경험 및 활동
+3. 특기나 장점
+4. 미래 계획
+자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 대학 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 등급 4.5에 대한 추가 모집 가능성을 평가하는 데 필요한 여러 요소를 잘 설명하고 있습니다. 그러나 특정 학과의 평균 등급과 표준 편차에 대한 구체적인 데이터가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가 모집에 대한 고려 사항을 잘 반영하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 등급 4.5와 추가 모집에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 몇몇 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 등급과 관련된 정보에 대해 정확하게 설명하고 있지만, 특정 학과의 평균 등급과 표준 편차에 대한 구체적인 수치가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 몇몇 부분에서 더 명확한 표현이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7035105687123057</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 등급을 가지고 추가 모집에 지원할 경우, 가능성을 높이기 위해 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **모집단위와 경쟁률**: 지원하고자 하는 단과대학의 모집단위별 경쟁률을 확인해야 합니다. 경쟁률이 높은 모집단위에서는 4.5 등급으로 충원 합격한 경우도 있지만, 낮은 경쟁률의 모집단위에서는 더 높은 등급이 필요할 수 있습니다.
+2. **모집인원과 지원인원**: 각 모집단위별로 모집 인원과 지원 인원을 확인하여, 현재의 지원 상황을 파악해야 합니다. 지원 인원이 많다면 경쟁률이 높아져서 4.5 등급으로 충원 합격하기 어렵습니다.
+3. **성적 산출방법**: 수능 전형성적 산출방법에 따라 국어, 수학, 영어, 탐구 등의 점수를 어떻게 합산하는지 확인해야 합니다. 일부 모집단위에서는 가산점이 적용되므로 이 부분도 중요합니다.
+4. **평균 및 표준편차**: 각 모집단위별로 지원자의 평균 점수와 표준 편차를 파악하여, 자신의 성적을 비교해볼 수 있습니다. 평균 점수가 높고 표준 편차가 낮은 경우, 4.5 등급으로 충원 합격하기 어렵습니다.
+예를 들어, 공과대학의 산업경영빅데이터공학과 모집단위에서는 경쟁률이 2.71이고, 충원 합격자는 60명입니다. 이 경우, 평균 점수가 높고 표준 편차가 낮아서 4.5 등급으로는 충원 합격하기 어려울 수 있습니다.
+따라서, 정확한 답변을 위해서는 해당 단과대학의 모집단위별 지원 상황과 성적 산출 방법 등을 확인해야 합니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조하여 자세한 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균(5.06)과 수능 4개 영역 등급 평균(5.78)에 대한 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되어 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 평균 점수에 대한 정보가 추가되어 있어 일관성이 떨어진다. 원본 텍스트의 평균 등급에 대한 언급이 없기 때문에 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 정보를 제공하며, 질문의 주제와 관련이 있다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있다. 따라서 유창성 점수는 높게 평가할 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달된다. 그러나 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 누락하고 있어 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하며, 의미적으로 적절하다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 적절성은 부족하다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6465112774596379</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학부의 경쟁률과 평균 점수를 확인해보겠습니다.
+먼저, 2024학년도 동의대학교 신소재공학부에 대한 정보는 다음과 같습니다:
+- 모집 인원: 6명
+- 지원 인원: 22명
+- 경쟁률: 3.67
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 312.33
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 432.67
+이 정보를 바탕으로, 동의대학교 신소재공학부는 경쟁률이 3.67이며, 평균 수능 점수가 높은 편입니다.
+따라서, 동의대학교 신소재공학부에 합격하기 위해서는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 310점 이상이고, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합이 430점 이상이어야 합니다.
+하지만, 정확한 등급은 해당 대학의 입시 홈페이지에서 확인하거나, 동의대학교 입시센터에 문의하시는 것이 가장 정확할 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 447점의 표준 점수가 작년 신소재공학과의 평균 점수보다 높다는 사실을 무시하고, 오히려 낮게 환산될 가능성이 매우 낮다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 447점이 평균보다 훨씬 높다고 명시하고 있지만, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용을 잘못 해석하고 있어 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 반복되어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 내용을 잘못 해석하여 일관된 주장을 하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 447점이 평균보다 높다는 사실을 부정하고 있습니다. 이는 정확성에 큰 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 잘못 이해하고 있어 일부 내용이 부적절하게 해석되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6567748289248198</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 작년 동일한 학과에서 최종 평균으로 1점 정도 높게 환산될 가능성은 매우 낮습니다. 하지만 정확한 결과는 해당 대학의 입시 홈페이지를 확인하거나, 직접 입학처에 문의하는 것이 가장 확실합니다.
+입력하신 정보와 관련된 데이터를 바탕으로, 작년 동일 학과의 평균 점수가 447점보다 높게 환산될 가능성은 매우 낮습니다. 하지만 정확한 결과는 대학 입시 홈페이지나 직접 입학처에 문의하여 확인하는 것이 가장 확실합니다.
+더 궁금하신 사항이 있으시면 "https://ipsi. deu. ac. kr/main. do"를 참조하거나, 동의대학교 입학처로 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교하여 다소 일반적인 정보로 대체되었습니다. 따라서 일부 사실이 누락되거나 변형되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 성적 기준과 관련된 정보를 포함하고 있지만, 학생부종합 평가와 같은 추가적인 요소를 언급함으로써 원본 텍스트와의 일관성이 떨어질 수 있습니다. 원본 텍스트는 성적에 대한 구체적인 비교에 중점을 두고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 다소 주제에서 벗어난 느낌을 줄 수 있습니다. 그러나 여전히 신소재공학부의 합격 가능성에 대한 질문에 적절히 응답하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 성적 기준을 반영하고 있지만, 학생부종합 평가와 같은 추가적인 요소를 강조함으로써 원본의 정확한 정보를 일부 왜곡할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 구체적인 사실과 일치하지 않는 부분이 있어 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.529652542583484</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적과 4.1~4.2 정도의 성적산출이 예상되더라도, 정시모집에 붙는 것은 여러 요인에 따라 결정됩니다. 신소재공학부 일반학생전형을 통과하기 위해서는 학생부종합 평가 영역에서의 성적뿐만 아니라 공동체역량, 학업역량, 전공적합성 등 다양한 요소를 고려해야 합니다.
+2024학년도 주요 변경사항에 따르면, 학생부교과성적 반영방법은 12과목을 반영하며, 진로선택과목 성적반영은 A: 1등급 B: 3등급 C:5등급으로 평가됩니다. 따라서 성적이 중요한 요소이지만, 학생부의 다른 영역에서도 좋은 평가를 받는 것이 중요합니다.
+추천드리면, 다음과 같은 절차를 따르세요:
+1. **성적 완벽화**: 현재 성적을 최대한 높이는 노력을 기울여야 합니다.
+2. **활동 증빙서류 준비**: 다양한 활동과 경험을 증명할 수 있는 서류를 준비합니다.
+3. **면접 대비**: 필요하다면 면접 준비도 철저히 하세요.
+더 자세한 정보나 도움이 필요하시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보시거나 관계된 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 정보를 제공하지 않고, 대신 과목별 성적 반영에 대한 일반적인 정보를 나열하고 있습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정 성적 데이터에 대한 정보를 제공하는 반면, 생성된 응답은 과목별 성적 반영에 대한 설명으로 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 인공지능학과의 성적에 대한 질문에 대한 답변으로서 일부 관련성을 가지고 있지만, 원본 텍스트의 구체적인 성적 정보와는 거리가 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 과목에 대한 정보를 나열하고 있지만, 이 정보들이 원본 텍스트의 주제와 연결되지 않아 일관된 논리적 흐름이 부족합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 제공하지 않으며, 과목별 성적 반영에 대한 정보는 있지만 이는 원본 텍스트의 핵심 내용과는 다릅니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 일관성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 과목별 성적 반영에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 일관성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.5696894500706765</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>东义大学的人工智能学部在普通学生招生中，对于人工智能学部的录取，主要参考的是国语、数学、英语和科学等科目的成绩。具体来说：
+- **국어 (Korean)**: 고전, 고전읽기, 국어, 국어생활, 독서, 독서와문법, 문법, 문학, 실용국어, 심화국어, 언어와매체, 작문, 화법, 화법과작문 등이 반영됩니다.
+- **수학 (Mathematics)**: 경제수학, 고급수학, 공통수학, 기하, 기하와벡터, 미분과적분(미적분), 미적분과통계기본, 수학(10-가(나)), 수학과제탐구, 수학의활용, 실용수학, 이산수학, 인문수학, 자연수학, 적분과통계, 확률(과)통계, 기본수학, 인공지능수학, 심화수학 등이 반영됩니다.
+- **영어 (English)**: 공통영어, 실용영어, 실용영어회화, 실용영어독해와작문, 심화영어독해, 심화영어독해와작문, 심화영어, 심화영어회화, 심화영어작문, 영미문학읽기, 영어강독, 영어권문화, 영어문법, 영어청해, 영어(10-a(б)), 영어독해, 영어독해와작문, 영어작문, 영어회화, 진로영어, 기본영어 등이 반영됩니다.
+- **과학 (Science)**: 고급물리(학), 고급생명과학, 고급생물, 고급지구과학, 고급화학, 공통과학, 과학, 과학사, 과학사및과학철학, 물리(학), 생명과학, 생명과학실험, 생물, 생물실험, 생활(과)과학, 융합과학, 정보과학, 지구과학, 지구과학실험, 통합과학, 화학, 화학실험, 환경과학 등이 반영됩니다.
+人工智能学部在普通学生招生中的录取主要参考国语、数学、英语和科学等科目的成绩。具体科目如下：
+- **국어 (Korean)**: 고전, 고전읽기, 국어, 국어생활, 독서, 독서와문법, 문법, 문학, 실용국어, 심화국어, 언어와매체, 작문, 화법, 화법과작문 등이 반영됩니다.
+- **수학 (Mathematics)**: 경제수학, 고급수학, 공통수학, 기하, 기하와벡터, 미분과적분(미적분), 미적분과통계기본, 수학(10-가(나)), 수학과제탐구, 수학의활용, 실용수학, 이산수학, 인문수학, 자연수학, 적분과통계, 확률(과)통계, 기본수학, 인공지능수학, 심화수학 등이 반영됩니다.
+- **영어 (English)**: 공통영어, 실용영어, 실용영어회화, 실용영어독해와작문, 심화영어독해, 심화영어독해와작문, 심화영어, 심화영어회화, 심화영어작문, 영미문학읽기, 영어강독, 영어권문화, 영어문법, 영어청해, 영어(10-a(б)), 영어독해, 영어독해와작문, 영어작문, 영어회화, 진로영어, 기본영어 등이 반영됩니다.
+- **과학 (Science)**: 고급물리(학), 고급생명과학, 고급생물, 고급지구과학, 고급화학, 공통과학, 과학, 과학사, 과학사및과학철학, 물리(학), 생명과학, 생명과학실험, 생물, 생물실험, 생활(과)과학, 융합과학, 정보과학, 지구과학, 지구과학실험, 통합과학, 화학, 화학실험, 환경과학 등이 반영됩니다.
+이러한 과목들 중에서 좋은 성적을 받는 것이 중요합니다. 특히 인공지능 분야에서는 수학과 과학의 성적이 매우 중요하므로, 해당 과목들을 잘 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 5.27 성적이 낮다고 언급하고 있지만, 원본 텍스트에서는 5.27 성적이 충원 합격이 가능한 학과를 명시하고 있습니다. 따라서 사실관계에 대한 부정확성이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 5.27 성적이 충원 합격이 가능한 학과를 나열하고 있지만, 생성된 응답은 이 성적이 낮다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 입학 관련 정보를 다루고 있지만, 원본 텍스트의 핵심 내용인 충원 합격 가능성에 대한 정보와는 다소 거리가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 5.27 성적이 낮다고 주장하는데, 이는 원본 텍스트의 정보와 상반됩니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실관계와 일관성에서 큰 문제가 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5900525882920955</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 추천입학(정시)으로는 낮은 점수로 보입니다. 동의대학교의 정시모집에서 인문사회과학대학, 상경대학 등의 모집단위에서는 수능 영어 등급이 큰 비중을 차지하므로, 5.27이라는 성적만으로 추천입학에 성공하기는 어려울 것으로 보입니다.
+추천입학의 경우 주로 학생부와 면접에서 높은 점수를 받는 것이 중요합니다. 특히, 나군 학생부종합 평가 영역 중 공동체역량이나 전공적합성 등에서 높은 점수를 받기 위해서는 관련 활동을 충분히 수행하고 기록해야 합니다.
+추천입학에 대한 확실한 답변을 얻으시려면, 동의대학교 입학사정관에게 직접 문의하거나, 제공된 링크인 "https://ipsi. deu. ac. kr/main. do"를 통해 더 자세한 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 정시 성적 4.2의 관계를 잘 설명하고 있으며, 합격 가능성에 대한 정보도 포함되어 있습니다. 그러나 일부 세부사항(예: 지원 인원, 경쟁률 등)은 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(지원 인원, 경쟁률 등)가 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 정시 성적 4.2에 대한 합격 가능성을 평가하는 데 적절한 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, 추가된 정보가 원본 텍스트에 명시되지 않은 점에서 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6610451373270223</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 어느 정도일지 판단해보겠습니다.
+소프트웨어공학부는 일반학생전형에서 모집하고 있으며, 2024학년도 지원 인원이 16명이고, 경쟁률이 5.33입니다. 이에 따라 충원 합격자는 3명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다.
+정시 성적 4.2를 기준으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05이고, 표준 편차는 8.27입니다. 이에 따라 정시 성적 4.2는 평균보다 약간 높은 수치로 판단할 수 있습니다.
+따라서, 정시 성적 4.2인 경우 동의대학교 소프트웨어공학부에서 충원 합격 가능성은 상당히 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 지원자의 개인적인 성적과 경쟁률 등 다양한 요소에 따라 결정되므로, 정확한 판단을 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참고하시거나, 입학처와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나, 구체적인 전형성적 산출 방법에 대한 정보가 부족하여 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 3.92라는 성적이 화학환경공학부의 평균 등급보다 높은 점수를 가지고 있다는 점을 강조하고 있습니다. 다만, 추가적인 정보가 필요하다는 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 화학환경공학부의 지원 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 약간의 중복된 정보가 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.92라는 성적에 대한 해석이 적절합니다. 그러나 전형성적 산출 방법에 대한 구체적인 정보가 부족하여 완전한 정확성에는 다소 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어지고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.7318384344373684</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적 산출 결과를 보면, 해당 학생이 화학환경공학부의 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다.
+1. **모집단위와 전형성적 산출방법**: 화학환경공학부의 일반학생전형에서 사용하는 수능 반영 영역 및 가산점 방식을 확인해야 합니다.
+2. **성적 산출 방법**: 동의대학교의 정시 성적 산출 방법이 어떻게 되는지 알아보아야 합니다.
+현재 제공된 정보만으로는 확정적으로 판단하기 어렵습니다. 하지만 일반적으로 수능 4개 영역 등급의 평균 점수가 높은 학생들이 경쟁률이 높은 모집단위에 지원하는 경향이 있습니다. 따라서 3.92라는 성적 산출 결과를 보면, 화학환경공학부의 일반학생전형에 지원 가능할 것으로 보입니다.
+하지만 정확한 판단을 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)에서 해당 모집단위와 전형성적 산출방법을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다. 원본 텍스트에서는 4.25의 성적이 최초합격자의 평균보다 높다고 판단했으나, 생성된 응답에서는 이 성적이 평균보다 낮다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.25의 성적이 합격 가능성이 높다고 판단했지만, 생성된 응답은 반대로 지원하기 어렵다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 적거나 불필요한 세부사항이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지 않은 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 성적에 대한 판단이 부정확합니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6835142772924102</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+화학환경공학부는 2024학년도 모집단위로 수능(일반학생전형)을 통해 모집되었습니다. 지원 인원이 많고 경쟁률이 높은 것을 확인할 수 있습니다 (지원인원: 122, 모집인원: 101, 경쟁률: 1.21). 이와 관련하여 성적 평균과 표준편차를 보면 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 269.13이고, 표준 편차는 24.49입니다.
+당신이 제시한 정시 성적 4.25를 기반으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합을 계산하면, 이 점수가 평균보다 낮은 것을 확인할 수 있습니다.
+따라서 정시 성적 4.25로는 동의대학교 화학환경공학부에 지원하기 어렵다고 판단됩니다. 경쟁률이 높고 평균 점수가 높기 때문에, 더 높은 점수를 가진 학생들이 선발될 가능성이 큽니다.
+추가적으로, 수능(일반학생전형)을 통해 지원하는 경우에도 충원 합격 (후보순위)이 21명으로 많아 경쟁률이 높습니다. 따라서 더 높은 점수를 가진 학생들이 선발될 가능성이 큽니다.
+따라서, 정시 성적 4.25로는 동의대학교 화학환경공학부에 지원하기 어렵다고 판단됩니다. 다른 전형이나 추가 준비가 필요할 수 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 모집인원, 지원인원에 대한 정보를 포함하고 있지만, 이러한 세부사항은 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지 않거나 출처가 불분명합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(경쟁률, 모집인원 등)는 원본 텍스트와 일관되지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 세부사항을 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 세부사항을 완전히 반영하지 않으며, 추가된 정보가 정확한지 확인할 수 없습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부 강점과 약점이 혼재되어 있습니다. 전반적으로 원본 텍스트와의 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.7259983524620205</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2의 점수를 가지고 영화학과에 지원하셨다면, 경쟁률이 2.20이고 모집인원이 5명이며 지원인원이 11명이라는 정보를 바탕으로 볼 때, 현재의 성적은 충분히 합격 가능성이 높습니다.
+하지만 정확한 합격 여부는 최종 등록자들의 수능 점수와 학생부 평균 등을 고려하여 결정되므로, 정확한 결과를 확인하기 위해서는 대학의 공식 발표를 기다리시는 것이 좋습니다. 또한, 영화학과의 경우 실기 평가도 중요한 요소이므로, 실기 준비도 철저히 하시는 것이 좋겠습니다.
+더 자세한 정보나 추가 질문이 있으시다면, "https://ipsi.deu.ac.kr/main. do"를 참조하시거나 대학 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 정확하게 전달하고 있으며, 원본 텍스트의 내용을 대부분 포함하고 있습니다. 그러나 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 따르고 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트와의 일관성이 완벽하지 않으므로 점수를 낮추었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 명확하게 설명하고 있습니다. 그러나 추가된 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 정보가 원본 텍스트와 일치하지 않기 때문에 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7897860486778453</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
